--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_281.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_281.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,408 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:36.280000', '0:00:38'), ('0:00:36.140000', '0:00:37.580000'), ('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:27.460000', '0:00:36.020000'), ('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:01:30.600000', '0:01:41.180000'), ('0:00:42.440000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:02.860000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -888,317 +898,266 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1087570621468927</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:00:29.965374', '0:00:34.307505')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.14, 24.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(59.8, 69.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
